--- a/Data/g14.2.xlsx
+++ b/Data/g14.2.xlsx
@@ -392,11 +392,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D2">
-        <v>263807</v>
+        <v>270206</v>
       </c>
     </row>
     <row r="3">
@@ -412,11 +412,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D3">
-        <v>267911</v>
+        <v>268879</v>
       </c>
     </row>
     <row r="4">
@@ -432,11 +432,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D4">
-        <v>266598</v>
+        <v>269972</v>
       </c>
     </row>
     <row r="5">
@@ -452,11 +452,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D5">
-        <v>267679</v>
+        <v>272366</v>
       </c>
     </row>
     <row r="6">
@@ -472,11 +472,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D6">
-        <v>270049</v>
+        <v>277373</v>
       </c>
     </row>
     <row r="7">
@@ -492,11 +492,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D7">
-        <v>275016</v>
+        <v>273714</v>
       </c>
     </row>
     <row r="8">
@@ -512,11 +512,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D8">
-        <v>271384</v>
+        <v>257484</v>
       </c>
     </row>
     <row r="9">
@@ -532,11 +532,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D9">
-        <v>255293</v>
+        <v>257996</v>
       </c>
     </row>
     <row r="10">
@@ -552,11 +552,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D10">
-        <v>255790</v>
+        <v>259187</v>
       </c>
     </row>
     <row r="11">
@@ -572,11 +572,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D11">
-        <v>256985</v>
+        <v>256687</v>
       </c>
     </row>
     <row r="12">
@@ -592,11 +592,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D12">
-        <v>254505</v>
+        <v>256240</v>
       </c>
     </row>
     <row r="13">
@@ -612,11 +612,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D13">
-        <v>254054</v>
+        <v>255979</v>
       </c>
     </row>
     <row r="14">
@@ -632,11 +632,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="D14">
-        <v>253800</v>
+        <v>254518</v>
       </c>
     </row>
     <row r="15">
@@ -652,11 +652,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D15">
-        <v>252352</v>
+        <v>257104</v>
       </c>
     </row>
     <row r="16">
@@ -672,11 +672,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D16">
-        <v>254912</v>
+        <v>268481</v>
       </c>
     </row>
     <row r="17">
@@ -692,11 +692,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D17">
-        <v>266188</v>
+        <v>281340</v>
       </c>
     </row>
     <row r="18">
@@ -712,11 +712,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D18">
-        <v>278942</v>
+        <v>287198</v>
       </c>
     </row>
     <row r="19">
@@ -732,11 +732,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D19">
-        <v>284754</v>
+        <v>284840</v>
       </c>
     </row>
     <row r="20">
@@ -752,11 +752,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D20">
-        <v>282412</v>
+        <v>287698</v>
       </c>
     </row>
     <row r="21">
@@ -772,11 +772,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D21">
-        <v>285243</v>
+        <v>295474</v>
       </c>
     </row>
     <row r="22">
@@ -792,11 +792,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D22">
-        <v>292952</v>
+        <v>301602</v>
       </c>
     </row>
     <row r="23">
@@ -812,11 +812,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D23">
-        <v>41953</v>
+        <v>42602</v>
       </c>
     </row>
     <row r="24">
@@ -832,11 +832,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D24">
-        <v>42443</v>
+        <v>42108</v>
       </c>
     </row>
     <row r="25">
@@ -852,11 +852,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D25">
-        <v>41952</v>
+        <v>42310</v>
       </c>
     </row>
     <row r="26">
@@ -872,11 +872,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D26">
-        <v>42152</v>
+        <v>42111</v>
       </c>
     </row>
     <row r="27">
@@ -892,11 +892,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D27">
-        <v>41951</v>
+        <v>43224</v>
       </c>
     </row>
     <row r="28">
@@ -912,11 +912,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D28">
-        <v>43060</v>
+        <v>42295</v>
       </c>
     </row>
     <row r="29">
@@ -932,11 +932,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D29">
-        <v>42136</v>
+        <v>38651</v>
       </c>
     </row>
     <row r="30">
@@ -952,11 +952,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D30">
-        <v>38503</v>
+        <v>37339</v>
       </c>
     </row>
     <row r="31">
@@ -972,11 +972,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D31">
-        <v>37199</v>
+        <v>38877</v>
       </c>
     </row>
     <row r="32">
@@ -992,11 +992,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D32">
-        <v>38732</v>
+        <v>37768</v>
       </c>
     </row>
     <row r="33">
@@ -1012,11 +1012,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D33">
-        <v>37629</v>
+        <v>38145</v>
       </c>
     </row>
     <row r="34">
@@ -1032,11 +1032,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D34">
-        <v>38004</v>
+        <v>38872</v>
       </c>
     </row>
     <row r="35">
@@ -1052,11 +1052,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="D35">
-        <v>38726</v>
+        <v>38637</v>
       </c>
     </row>
     <row r="36">
@@ -1072,11 +1072,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D36">
-        <v>38492</v>
+        <v>38163</v>
       </c>
     </row>
     <row r="37">
@@ -1092,11 +1092,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D37">
-        <v>38021</v>
+        <v>40075</v>
       </c>
     </row>
     <row r="38">
@@ -1112,11 +1112,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D38">
-        <v>39926</v>
+        <v>42414</v>
       </c>
     </row>
     <row r="39">
@@ -1132,11 +1132,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D39">
-        <v>42256</v>
+        <v>43088</v>
       </c>
     </row>
     <row r="40">
@@ -1152,11 +1152,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D40">
-        <v>42932</v>
+        <v>43042</v>
       </c>
     </row>
     <row r="41">
@@ -1172,11 +1172,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D41">
-        <v>42885</v>
+        <v>43165</v>
       </c>
     </row>
     <row r="42">
@@ -1192,11 +1192,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D42">
-        <v>43006</v>
+        <v>44307</v>
       </c>
     </row>
     <row r="43">
@@ -1212,11 +1212,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D43">
-        <v>44145</v>
+        <v>45144</v>
       </c>
     </row>
     <row r="44">
@@ -1232,11 +1232,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D44">
-        <v>1780</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="45">
@@ -1252,11 +1252,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D45">
-        <v>1838</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="46">
@@ -1272,11 +1272,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D46">
-        <v>1816</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="47">
@@ -1292,11 +1292,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D47">
-        <v>1833</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="48">
@@ -1312,11 +1312,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D48">
-        <v>1812</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="49">
@@ -1332,11 +1332,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D49">
-        <v>1844</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="50">
@@ -1352,11 +1352,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D50">
-        <v>1879</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="51">
@@ -1372,11 +1372,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D51">
-        <v>1769</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="52">
@@ -1392,11 +1392,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D52">
-        <v>1639</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="53">
@@ -1412,11 +1412,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D53">
-        <v>1923</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="54">
@@ -1432,11 +1432,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D54">
-        <v>1735</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="55">
@@ -1452,11 +1452,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D55">
-        <v>1871</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="56">
@@ -1472,11 +1472,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="D56">
-        <v>1845</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="57">
@@ -1492,11 +1492,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D57">
-        <v>1938</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="58">
@@ -1512,11 +1512,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D58">
-        <v>1803</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="59">
@@ -1532,11 +1532,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D59">
-        <v>1810</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="60">
@@ -1552,11 +1552,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D60">
-        <v>1870</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="61">
@@ -1572,11 +1572,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D61">
-        <v>1953</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="62">
@@ -1592,11 +1592,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D62">
-        <v>1898</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="63">
@@ -1612,11 +1612,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D63">
-        <v>1977</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="64">
@@ -1632,11 +1632,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D64">
-        <v>1941</v>
+        <v>1891</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g14.2.xlsx
+++ b/Data/g14.2.xlsx
@@ -392,11 +392,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D2">
-        <v>270206</v>
+        <v>272908</v>
       </c>
     </row>
     <row r="3">
@@ -412,11 +412,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D3">
-        <v>268879</v>
+        <v>274028</v>
       </c>
     </row>
     <row r="4">
@@ -432,11 +432,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D4">
-        <v>269972</v>
+        <v>276460</v>
       </c>
     </row>
     <row r="5">
@@ -452,11 +452,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D5">
-        <v>272366</v>
+        <v>281542</v>
       </c>
     </row>
     <row r="6">
@@ -472,11 +472,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D6">
-        <v>277373</v>
+        <v>277828</v>
       </c>
     </row>
     <row r="7">
@@ -492,11 +492,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D7">
-        <v>273714</v>
+        <v>261358</v>
       </c>
     </row>
     <row r="8">
@@ -512,11 +512,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D8">
-        <v>257484</v>
+        <v>261864</v>
       </c>
     </row>
     <row r="9">
@@ -532,11 +532,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D9">
-        <v>257996</v>
+        <v>263076</v>
       </c>
     </row>
     <row r="10">
@@ -552,11 +552,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D10">
-        <v>259187</v>
+        <v>260532</v>
       </c>
     </row>
     <row r="11">
@@ -572,11 +572,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D11">
-        <v>256687</v>
+        <v>260090</v>
       </c>
     </row>
     <row r="12">
@@ -592,11 +592,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D12">
-        <v>256240</v>
+        <v>259841</v>
       </c>
     </row>
     <row r="13">
@@ -612,11 +612,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="D13">
-        <v>255979</v>
+        <v>258357</v>
       </c>
     </row>
     <row r="14">
@@ -632,11 +632,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D14">
-        <v>254518</v>
+        <v>260973</v>
       </c>
     </row>
     <row r="15">
@@ -652,11 +652,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D15">
-        <v>257104</v>
+        <v>272530</v>
       </c>
     </row>
     <row r="16">
@@ -672,11 +672,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D16">
-        <v>268481</v>
+        <v>285584</v>
       </c>
     </row>
     <row r="17">
@@ -692,11 +692,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D17">
-        <v>281340</v>
+        <v>291524</v>
       </c>
     </row>
     <row r="18">
@@ -712,11 +712,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D18">
-        <v>287198</v>
+        <v>289148</v>
       </c>
     </row>
     <row r="19">
@@ -732,11 +732,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D19">
-        <v>284840</v>
+        <v>292052</v>
       </c>
     </row>
     <row r="20">
@@ -752,11 +752,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D20">
-        <v>287698</v>
+        <v>299950</v>
       </c>
     </row>
     <row r="21">
@@ -772,11 +772,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D21">
-        <v>295474</v>
+        <v>306163</v>
       </c>
     </row>
     <row r="22">
@@ -792,11 +792,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D22">
-        <v>301602</v>
+        <v>308318</v>
       </c>
     </row>
     <row r="23">
@@ -812,11 +812,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D23">
-        <v>42602</v>
+        <v>42773</v>
       </c>
     </row>
     <row r="24">
@@ -832,11 +832,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D24">
-        <v>42108</v>
+        <v>42979</v>
       </c>
     </row>
     <row r="25">
@@ -852,11 +852,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D25">
-        <v>42310</v>
+        <v>42778</v>
       </c>
     </row>
     <row r="26">
@@ -872,11 +872,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D26">
-        <v>42111</v>
+        <v>43909</v>
       </c>
     </row>
     <row r="27">
@@ -892,11 +892,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D27">
-        <v>43224</v>
+        <v>42963</v>
       </c>
     </row>
     <row r="28">
@@ -912,11 +912,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D28">
-        <v>42295</v>
+        <v>39264</v>
       </c>
     </row>
     <row r="29">
@@ -932,11 +932,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D29">
-        <v>38651</v>
+        <v>37928</v>
       </c>
     </row>
     <row r="30">
@@ -952,11 +952,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D30">
-        <v>37339</v>
+        <v>39493</v>
       </c>
     </row>
     <row r="31">
@@ -972,11 +972,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D31">
-        <v>38877</v>
+        <v>38367</v>
       </c>
     </row>
     <row r="32">
@@ -992,11 +992,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D32">
-        <v>37768</v>
+        <v>38747</v>
       </c>
     </row>
     <row r="33">
@@ -1012,11 +1012,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D33">
-        <v>38145</v>
+        <v>39491</v>
       </c>
     </row>
     <row r="34">
@@ -1032,11 +1032,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="D34">
-        <v>38872</v>
+        <v>39252</v>
       </c>
     </row>
     <row r="35">
@@ -1052,11 +1052,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D35">
-        <v>38637</v>
+        <v>38768</v>
       </c>
     </row>
     <row r="36">
@@ -1072,11 +1072,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D36">
-        <v>38163</v>
+        <v>40712</v>
       </c>
     </row>
     <row r="37">
@@ -1092,11 +1092,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D37">
-        <v>40075</v>
+        <v>43091</v>
       </c>
     </row>
     <row r="38">
@@ -1112,11 +1112,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D38">
-        <v>42414</v>
+        <v>43772</v>
       </c>
     </row>
     <row r="39">
@@ -1132,11 +1132,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D39">
-        <v>43088</v>
+        <v>43726</v>
       </c>
     </row>
     <row r="40">
@@ -1152,11 +1152,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D40">
-        <v>43042</v>
+        <v>43852</v>
       </c>
     </row>
     <row r="41">
@@ -1172,11 +1172,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D41">
-        <v>43165</v>
+        <v>45011</v>
       </c>
     </row>
     <row r="42">
@@ -1192,11 +1192,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D42">
-        <v>44307</v>
+        <v>45862</v>
       </c>
     </row>
     <row r="43">
@@ -1212,11 +1212,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D43">
-        <v>45144</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="44">
@@ -1232,11 +1232,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D44">
-        <v>1844</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="45">
@@ -1252,11 +1252,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D45">
-        <v>1822</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="46">
@@ -1272,11 +1272,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D46">
-        <v>1838</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="47">
@@ -1292,11 +1292,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D47">
-        <v>1818</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="48">
@@ -1312,11 +1312,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D48">
-        <v>1849</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="49">
@@ -1332,11 +1332,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D49">
-        <v>1884</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="50">
@@ -1352,11 +1352,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D50">
-        <v>1774</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="51">
@@ -1372,11 +1372,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D51">
-        <v>1644</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="52">
@@ -1392,11 +1392,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D52">
-        <v>1929</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="53">
@@ -1412,11 +1412,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D53">
-        <v>1740</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="54">
@@ -1432,11 +1432,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D54">
-        <v>1877</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="55">
@@ -1452,11 +1452,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="D55">
-        <v>1850</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="56">
@@ -1472,11 +1472,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D56">
-        <v>1943</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="57">
@@ -1492,11 +1492,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D57">
-        <v>1808</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="58">
@@ -1512,11 +1512,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D58">
-        <v>1815</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="59">
@@ -1532,11 +1532,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D59">
-        <v>1875</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="60">
@@ -1552,11 +1552,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D60">
-        <v>1959</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="61">
@@ -1572,11 +1572,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D61">
-        <v>1903</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="62">
@@ -1592,11 +1592,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D62">
-        <v>1983</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="63">
@@ -1612,11 +1612,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D63">
-        <v>1946</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="64">
@@ -1632,11 +1632,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D64">
-        <v>1891</v>
+        <v>2104</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g14.2.xlsx
+++ b/Data/g14.2.xlsx
@@ -392,11 +392,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D2">
-        <v>272908</v>
+        <v>277151</v>
       </c>
     </row>
     <row r="3">
@@ -412,11 +412,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D3">
-        <v>274028</v>
+        <v>279607</v>
       </c>
     </row>
     <row r="4">
@@ -432,11 +432,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D4">
-        <v>276460</v>
+        <v>284748</v>
       </c>
     </row>
     <row r="5">
@@ -452,11 +452,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D5">
-        <v>281542</v>
+        <v>280991</v>
       </c>
     </row>
     <row r="6">
@@ -472,11 +472,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D6">
-        <v>277828</v>
+        <v>264329</v>
       </c>
     </row>
     <row r="7">
@@ -492,11 +492,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D7">
-        <v>261358</v>
+        <v>264841</v>
       </c>
     </row>
     <row r="8">
@@ -512,11 +512,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D8">
-        <v>261864</v>
+        <v>266072</v>
       </c>
     </row>
     <row r="9">
@@ -532,11 +532,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D9">
-        <v>263076</v>
+        <v>263499</v>
       </c>
     </row>
     <row r="10">
@@ -552,11 +552,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D10">
-        <v>260532</v>
+        <v>263050</v>
       </c>
     </row>
     <row r="11">
@@ -572,11 +572,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D11">
-        <v>260090</v>
+        <v>262804</v>
       </c>
     </row>
     <row r="12">
@@ -592,11 +592,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="D12">
-        <v>259841</v>
+        <v>261300</v>
       </c>
     </row>
     <row r="13">
@@ -612,11 +612,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D13">
-        <v>258357</v>
+        <v>263946</v>
       </c>
     </row>
     <row r="14">
@@ -632,11 +632,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D14">
-        <v>260973</v>
+        <v>275633</v>
       </c>
     </row>
     <row r="15">
@@ -652,11 +652,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D15">
-        <v>272530</v>
+        <v>288839</v>
       </c>
     </row>
     <row r="16">
@@ -672,11 +672,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D16">
-        <v>285584</v>
+        <v>294847</v>
       </c>
     </row>
     <row r="17">
@@ -692,11 +692,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D17">
-        <v>291524</v>
+        <v>292446</v>
       </c>
     </row>
     <row r="18">
@@ -712,11 +712,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D18">
-        <v>289148</v>
+        <v>295380</v>
       </c>
     </row>
     <row r="19">
@@ -732,11 +732,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D19">
-        <v>292052</v>
+        <v>303370</v>
       </c>
     </row>
     <row r="20">
@@ -752,11 +752,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D20">
-        <v>299950</v>
+        <v>309652</v>
       </c>
     </row>
     <row r="21">
@@ -772,11 +772,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D21">
-        <v>306163</v>
+        <v>311833</v>
       </c>
     </row>
     <row r="22">
@@ -792,11 +792,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D22">
-        <v>308318</v>
+        <v>322647</v>
       </c>
     </row>
     <row r="23">
@@ -812,11 +812,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D23">
-        <v>42773</v>
+        <v>43548</v>
       </c>
     </row>
     <row r="24">
@@ -832,11 +832,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D24">
-        <v>42979</v>
+        <v>43345</v>
       </c>
     </row>
     <row r="25">
@@ -852,11 +852,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D25">
-        <v>42778</v>
+        <v>44490</v>
       </c>
     </row>
     <row r="26">
@@ -872,11 +872,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D26">
-        <v>43909</v>
+        <v>43535</v>
       </c>
     </row>
     <row r="27">
@@ -892,11 +892,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D27">
-        <v>42963</v>
+        <v>39785</v>
       </c>
     </row>
     <row r="28">
@@ -912,11 +912,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D28">
-        <v>39264</v>
+        <v>38434</v>
       </c>
     </row>
     <row r="29">
@@ -932,11 +932,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D29">
-        <v>37928</v>
+        <v>40020</v>
       </c>
     </row>
     <row r="30">
@@ -952,11 +952,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D30">
-        <v>39493</v>
+        <v>38879</v>
       </c>
     </row>
     <row r="31">
@@ -972,11 +972,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D31">
-        <v>38367</v>
+        <v>39267</v>
       </c>
     </row>
     <row r="32">
@@ -992,11 +992,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D32">
-        <v>38747</v>
+        <v>40019</v>
       </c>
     </row>
     <row r="33">
@@ -1012,11 +1012,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="D33">
-        <v>39491</v>
+        <v>39776</v>
       </c>
     </row>
     <row r="34">
@@ -1032,11 +1032,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D34">
-        <v>39252</v>
+        <v>39288</v>
       </c>
     </row>
     <row r="35">
@@ -1052,11 +1052,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D35">
-        <v>38768</v>
+        <v>41258</v>
       </c>
     </row>
     <row r="36">
@@ -1072,11 +1072,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D36">
-        <v>40712</v>
+        <v>43668</v>
       </c>
     </row>
     <row r="37">
@@ -1092,11 +1092,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D37">
-        <v>43091</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="38">
@@ -1112,11 +1112,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D38">
-        <v>43772</v>
+        <v>44314</v>
       </c>
     </row>
     <row r="39">
@@ -1132,11 +1132,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D39">
-        <v>43726</v>
+        <v>44440</v>
       </c>
     </row>
     <row r="40">
@@ -1152,11 +1152,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D40">
-        <v>43852</v>
+        <v>45617</v>
       </c>
     </row>
     <row r="41">
@@ -1172,11 +1172,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D41">
-        <v>45011</v>
+        <v>46477</v>
       </c>
     </row>
     <row r="42">
@@ -1192,11 +1192,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D42">
-        <v>45862</v>
+        <v>46587</v>
       </c>
     </row>
     <row r="43">
@@ -1212,11 +1212,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D43">
-        <v>45967</v>
+        <v>50142</v>
       </c>
     </row>
     <row r="44">
@@ -1232,11 +1232,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D44">
-        <v>1849</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="45">
@@ -1252,11 +1252,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D45">
-        <v>1866</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="46">
@@ -1272,11 +1272,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D46">
-        <v>1845</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="47">
@@ -1292,11 +1292,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D47">
-        <v>1877</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="48">
@@ -1312,11 +1312,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D48">
-        <v>1912</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="49">
@@ -1332,11 +1332,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D49">
-        <v>1800</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="50">
@@ -1352,11 +1352,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D50">
-        <v>1668</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="51">
@@ -1372,11 +1372,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D51">
-        <v>1958</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="52">
@@ -1392,11 +1392,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D52">
-        <v>1767</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="53">
@@ -1412,11 +1412,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D53">
-        <v>1905</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="54">
@@ -1432,11 +1432,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="D54">
-        <v>1878</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="55">
@@ -1452,11 +1452,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D55">
-        <v>1972</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="56">
@@ -1472,11 +1472,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D56">
-        <v>1835</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="57">
@@ -1492,11 +1492,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D57">
-        <v>1842</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="58">
@@ -1512,11 +1512,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D58">
-        <v>1903</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="59">
@@ -1532,11 +1532,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D59">
-        <v>1988</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="60">
@@ -1552,11 +1552,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D60">
-        <v>1932</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="61">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D61">
@@ -1592,11 +1592,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D62">
-        <v>1975</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="63">
@@ -1612,11 +1612,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D63">
-        <v>1919</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="64">
@@ -1632,11 +1632,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D64">
-        <v>2104</v>
+        <v>2265</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g14.2.xlsx
+++ b/Data/g14.2.xlsx
@@ -392,11 +392,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D2">
-        <v>277151</v>
+        <v>281853</v>
       </c>
     </row>
     <row r="3">
@@ -412,11 +412,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D3">
-        <v>279607</v>
+        <v>287033</v>
       </c>
     </row>
     <row r="4">
@@ -432,11 +432,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D4">
-        <v>284748</v>
+        <v>283248</v>
       </c>
     </row>
     <row r="5">
@@ -452,11 +452,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D5">
-        <v>280991</v>
+        <v>266444</v>
       </c>
     </row>
     <row r="6">
@@ -472,11 +472,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D6">
-        <v>264329</v>
+        <v>266971</v>
       </c>
     </row>
     <row r="7">
@@ -492,11 +492,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D7">
-        <v>264841</v>
+        <v>268198</v>
       </c>
     </row>
     <row r="8">
@@ -512,11 +512,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D8">
-        <v>266072</v>
+        <v>265608</v>
       </c>
     </row>
     <row r="9">
@@ -532,11 +532,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D9">
-        <v>263499</v>
+        <v>265152</v>
       </c>
     </row>
     <row r="10">
@@ -552,11 +552,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D10">
-        <v>263050</v>
+        <v>264907</v>
       </c>
     </row>
     <row r="11">
@@ -572,11 +572,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="D11">
-        <v>262804</v>
+        <v>263387</v>
       </c>
     </row>
     <row r="12">
@@ -592,11 +592,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D12">
-        <v>261300</v>
+        <v>266057</v>
       </c>
     </row>
     <row r="13">
@@ -612,11 +612,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D13">
-        <v>263946</v>
+        <v>277836</v>
       </c>
     </row>
     <row r="14">
@@ -632,11 +632,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D14">
-        <v>275633</v>
+        <v>291146</v>
       </c>
     </row>
     <row r="15">
@@ -652,11 +652,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D15">
-        <v>288839</v>
+        <v>297197</v>
       </c>
     </row>
     <row r="16">
@@ -672,11 +672,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D16">
-        <v>294847</v>
+        <v>294781</v>
       </c>
     </row>
     <row r="17">
@@ -692,11 +692,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D17">
-        <v>292446</v>
+        <v>297737</v>
       </c>
     </row>
     <row r="18">
@@ -712,11 +712,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D18">
-        <v>295380</v>
+        <v>305791</v>
       </c>
     </row>
     <row r="19">
@@ -732,11 +732,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D19">
-        <v>303370</v>
+        <v>312126</v>
       </c>
     </row>
     <row r="20">
@@ -752,11 +752,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D20">
-        <v>309652</v>
+        <v>314321</v>
       </c>
     </row>
     <row r="21">
@@ -772,11 +772,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D21">
-        <v>311833</v>
+        <v>325219</v>
       </c>
     </row>
     <row r="22">
@@ -792,11 +792,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D22">
-        <v>322647</v>
+        <v>327743</v>
       </c>
     </row>
     <row r="23">
@@ -812,11 +812,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D23">
-        <v>43548</v>
+        <v>43593</v>
       </c>
     </row>
     <row r="24">
@@ -832,11 +832,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D24">
-        <v>43345</v>
+        <v>44746</v>
       </c>
     </row>
     <row r="25">
@@ -852,11 +852,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D25">
-        <v>44490</v>
+        <v>43783</v>
       </c>
     </row>
     <row r="26">
@@ -872,11 +872,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D26">
-        <v>43535</v>
+        <v>40013</v>
       </c>
     </row>
     <row r="27">
@@ -892,11 +892,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D27">
-        <v>39785</v>
+        <v>38652</v>
       </c>
     </row>
     <row r="28">
@@ -912,11 +912,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D28">
-        <v>38434</v>
+        <v>40248</v>
       </c>
     </row>
     <row r="29">
@@ -932,11 +932,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D29">
-        <v>40020</v>
+        <v>39101</v>
       </c>
     </row>
     <row r="30">
@@ -952,11 +952,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D30">
-        <v>38879</v>
+        <v>39489</v>
       </c>
     </row>
     <row r="31">
@@ -972,11 +972,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D31">
-        <v>39267</v>
+        <v>40248</v>
       </c>
     </row>
     <row r="32">
@@ -992,11 +992,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="D32">
-        <v>40019</v>
+        <v>40003</v>
       </c>
     </row>
     <row r="33">
@@ -1012,11 +1012,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D33">
-        <v>39776</v>
+        <v>39511</v>
       </c>
     </row>
     <row r="34">
@@ -1032,11 +1032,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D34">
-        <v>39288</v>
+        <v>41493</v>
       </c>
     </row>
     <row r="35">
@@ -1052,11 +1052,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D35">
-        <v>41258</v>
+        <v>43918</v>
       </c>
     </row>
     <row r="36">
@@ -1072,11 +1072,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D36">
-        <v>43668</v>
+        <v>44612</v>
       </c>
     </row>
     <row r="37">
@@ -1092,11 +1092,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D37">
-        <v>44361</v>
+        <v>44566</v>
       </c>
     </row>
     <row r="38">
@@ -1112,11 +1112,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D38">
-        <v>44314</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="39">
@@ -1132,11 +1132,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D39">
-        <v>44440</v>
+        <v>45876</v>
       </c>
     </row>
     <row r="40">
@@ -1152,11 +1152,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D40">
-        <v>45617</v>
+        <v>46742</v>
       </c>
     </row>
     <row r="41">
@@ -1172,11 +1172,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D41">
-        <v>46477</v>
+        <v>46850</v>
       </c>
     </row>
     <row r="42">
@@ -1192,11 +1192,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D42">
-        <v>46587</v>
+        <v>50425</v>
       </c>
     </row>
     <row r="43">
@@ -1212,11 +1212,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D43">
-        <v>50142</v>
+        <v>50890</v>
       </c>
     </row>
     <row r="44">
@@ -1232,11 +1232,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D44">
-        <v>1902</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="45">
@@ -1252,11 +1252,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D45">
-        <v>1880</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="46">
@@ -1272,11 +1272,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D46">
-        <v>1913</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="47">
@@ -1292,11 +1292,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D47">
-        <v>1949</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="48">
@@ -1312,11 +1312,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D48">
-        <v>1835</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="49">
@@ -1332,11 +1332,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D49">
-        <v>1700</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="50">
@@ -1352,11 +1352,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D50">
-        <v>1995</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="51">
@@ -1372,11 +1372,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D51">
-        <v>1800</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="52">
@@ -1392,11 +1392,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D52">
-        <v>1942</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="53">
@@ -1412,11 +1412,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="D53">
-        <v>1914</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="54">
@@ -1432,11 +1432,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D54">
-        <v>2010</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="55">
@@ -1452,11 +1452,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D55">
-        <v>1870</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="56">
@@ -1472,11 +1472,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D56">
-        <v>1878</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="57">
@@ -1492,11 +1492,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D57">
-        <v>1940</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="58">
@@ -1512,11 +1512,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D58">
-        <v>2026</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="59">
@@ -1532,11 +1532,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D59">
-        <v>1969</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="60">
@@ -1552,11 +1552,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D60">
-        <v>2051</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="61">
@@ -1572,11 +1572,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D61">
-        <v>2013</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="62">
@@ -1592,11 +1592,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D62">
-        <v>1956</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="63">
@@ -1612,11 +1612,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D63">
-        <v>2144</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="64">
@@ -1632,11 +1632,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D64">
-        <v>2265</v>
+        <v>2343</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g14.2.xlsx
+++ b/Data/g14.2.xlsx
@@ -1,46 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -48,21 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -350,14 +420,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Região</t>
@@ -392,11 +468,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>281853</v>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>381916</v>
       </c>
     </row>
     <row r="3">
@@ -412,11 +488,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>287033</v>
+          <t>01/04/2019</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>383145</v>
       </c>
     </row>
     <row r="4">
@@ -432,11 +508,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>283248</v>
+          <t>01/07/2019</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>386294</v>
       </c>
     </row>
     <row r="5">
@@ -452,11 +528,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>266444</v>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>393108</v>
       </c>
     </row>
     <row r="6">
@@ -472,11 +548,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>266971</v>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>370940</v>
       </c>
     </row>
     <row r="7">
@@ -492,11 +568,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>268198</v>
+          <t>01/04/2020</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>348900</v>
       </c>
     </row>
     <row r="8">
@@ -512,11 +588,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>265608</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>349283</v>
       </c>
     </row>
     <row r="9">
@@ -532,11 +608,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>265152</v>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>350780</v>
       </c>
     </row>
     <row r="10">
@@ -552,11 +628,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>264907</v>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>315381</v>
       </c>
     </row>
     <row r="11">
@@ -572,11 +648,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>263387</v>
+          <t>01/04/2021</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>314643</v>
       </c>
     </row>
     <row r="12">
@@ -592,11 +668,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>266057</v>
+          <t>01/07/2021</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>314120</v>
       </c>
     </row>
     <row r="13">
@@ -612,11 +688,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>277836</v>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>312457</v>
       </c>
     </row>
     <row r="14">
@@ -632,11 +708,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>291146</v>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>298226</v>
       </c>
     </row>
     <row r="15">
@@ -652,11 +728,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>297197</v>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>311256</v>
       </c>
     </row>
     <row r="16">
@@ -672,11 +748,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>294781</v>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>326266</v>
       </c>
     </row>
     <row r="17">
@@ -692,11 +768,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>297737</v>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>332776</v>
       </c>
     </row>
     <row r="18">
@@ -712,11 +788,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>305791</v>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>315309</v>
       </c>
     </row>
     <row r="19">
@@ -732,11 +808,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
-        </is>
-      </c>
-      <c r="D19">
-        <v>312126</v>
+          <t>01/04/2023</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>318491</v>
       </c>
     </row>
     <row r="20">
@@ -752,11 +828,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
-        </is>
-      </c>
-      <c r="D20">
-        <v>314321</v>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>326933</v>
       </c>
     </row>
     <row r="21">
@@ -772,11 +848,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
-        </is>
-      </c>
-      <c r="D21">
-        <v>325219</v>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>333655</v>
       </c>
     </row>
     <row r="22">
@@ -792,17 +868,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
-        </is>
-      </c>
-      <c r="D22">
-        <v>327743</v>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>320515</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -812,17 +888,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
-        </is>
-      </c>
-      <c r="D23">
-        <v>43593</v>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>331500</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -832,17 +908,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>44746</v>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>334104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -852,11 +928,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>43783</v>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>341484</v>
       </c>
     </row>
     <row r="26">
@@ -872,11 +948,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
-        </is>
-      </c>
-      <c r="D26">
-        <v>40013</v>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>59153</v>
       </c>
     </row>
     <row r="27">
@@ -892,11 +968,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
-        </is>
-      </c>
-      <c r="D27">
-        <v>38652</v>
+          <t>01/04/2019</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>59432</v>
       </c>
     </row>
     <row r="28">
@@ -912,11 +988,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
-        </is>
-      </c>
-      <c r="D28">
-        <v>40248</v>
+          <t>01/07/2019</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>59124</v>
       </c>
     </row>
     <row r="29">
@@ -932,11 +1008,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="D29">
-        <v>39101</v>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>60622</v>
       </c>
     </row>
     <row r="30">
@@ -952,11 +1028,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
-        </is>
-      </c>
-      <c r="D30">
-        <v>39489</v>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>56737</v>
       </c>
     </row>
     <row r="31">
@@ -972,11 +1048,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
-        </is>
-      </c>
-      <c r="D31">
-        <v>40248</v>
+          <t>01/04/2020</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>51849</v>
       </c>
     </row>
     <row r="32">
@@ -992,11 +1068,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
-        </is>
-      </c>
-      <c r="D32">
-        <v>40003</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>50086</v>
       </c>
     </row>
     <row r="33">
@@ -1012,11 +1088,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
-        </is>
-      </c>
-      <c r="D33">
-        <v>39511</v>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>52131</v>
       </c>
     </row>
     <row r="34">
@@ -1032,11 +1108,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
-        </is>
-      </c>
-      <c r="D34">
-        <v>41493</v>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>45963</v>
       </c>
     </row>
     <row r="35">
@@ -1052,11 +1128,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
-        </is>
-      </c>
-      <c r="D35">
-        <v>43918</v>
+          <t>01/04/2021</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>46422</v>
       </c>
     </row>
     <row r="36">
@@ -1072,11 +1148,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
-        </is>
-      </c>
-      <c r="D36">
-        <v>44612</v>
+          <t>01/07/2021</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>47245</v>
       </c>
     </row>
     <row r="37">
@@ -1092,11 +1168,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
-        </is>
-      </c>
-      <c r="D37">
-        <v>44566</v>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>47044</v>
       </c>
     </row>
     <row r="38">
@@ -1112,11 +1188,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
-        </is>
-      </c>
-      <c r="D38">
-        <v>44694</v>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>43885</v>
       </c>
     </row>
     <row r="39">
@@ -1132,11 +1208,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="D39">
-        <v>45876</v>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>46062</v>
       </c>
     </row>
     <row r="40">
@@ -1152,11 +1228,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
-        </is>
-      </c>
-      <c r="D40">
-        <v>46742</v>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>48854</v>
       </c>
     </row>
     <row r="41">
@@ -1172,11 +1248,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
-        </is>
-      </c>
-      <c r="D41">
-        <v>46850</v>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>49528</v>
       </c>
     </row>
     <row r="42">
@@ -1192,11 +1268,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
-        </is>
-      </c>
-      <c r="D42">
-        <v>50425</v>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>47264</v>
       </c>
     </row>
     <row r="43">
@@ -1212,17 +1288,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
-        </is>
-      </c>
-      <c r="D43">
-        <v>50890</v>
+          <t>01/04/2023</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>47474</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1232,17 +1308,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
-        </is>
-      </c>
-      <c r="D44">
-        <v>1885</v>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>48667</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1252,17 +1328,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
-        </is>
-      </c>
-      <c r="D45">
-        <v>1918</v>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>49541</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1272,17 +1348,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="D46">
-        <v>1953</v>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>47430</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1292,17 +1368,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
-        </is>
-      </c>
-      <c r="D47">
-        <v>1839</v>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>51061</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1312,17 +1388,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
-        </is>
-      </c>
-      <c r="D48">
-        <v>1704</v>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>51518</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1332,11 +1408,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
-        </is>
-      </c>
-      <c r="D49">
-        <v>2000</v>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>53039</v>
       </c>
     </row>
     <row r="50">
@@ -1352,11 +1428,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="D50">
-        <v>1805</v>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>2522</v>
       </c>
     </row>
     <row r="51">
@@ -1372,11 +1448,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
-        </is>
-      </c>
-      <c r="D51">
-        <v>1946</v>
+          <t>01/04/2019</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>2545</v>
       </c>
     </row>
     <row r="52">
@@ -1392,11 +1468,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
-        </is>
-      </c>
-      <c r="D52">
-        <v>1919</v>
+          <t>01/07/2019</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>2517</v>
       </c>
     </row>
     <row r="53">
@@ -1412,11 +1488,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
-        </is>
-      </c>
-      <c r="D53">
-        <v>2015</v>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>2562</v>
       </c>
     </row>
     <row r="54">
@@ -1432,11 +1508,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
-        </is>
-      </c>
-      <c r="D54">
-        <v>1875</v>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>2498</v>
       </c>
     </row>
     <row r="55">
@@ -1452,11 +1528,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
-        </is>
-      </c>
-      <c r="D55">
-        <v>1882</v>
+          <t>01/04/2020</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>2347</v>
       </c>
     </row>
     <row r="56">
@@ -1472,11 +1548,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
-        </is>
-      </c>
-      <c r="D56">
-        <v>1944</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>2173</v>
       </c>
     </row>
     <row r="57">
@@ -1492,11 +1568,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
-        </is>
-      </c>
-      <c r="D57">
-        <v>2031</v>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>2546</v>
       </c>
     </row>
     <row r="58">
@@ -1512,11 +1588,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
-        </is>
-      </c>
-      <c r="D58">
-        <v>1974</v>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>2084</v>
       </c>
     </row>
     <row r="59">
@@ -1532,11 +1608,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
-        </is>
-      </c>
-      <c r="D59">
-        <v>2056</v>
+          <t>01/04/2021</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>2240</v>
       </c>
     </row>
     <row r="60">
@@ -1552,11 +1628,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="D60">
-        <v>2018</v>
+          <t>01/07/2021</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>2207</v>
       </c>
     </row>
     <row r="61">
@@ -1572,11 +1648,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
-        </is>
-      </c>
-      <c r="D61">
-        <v>1961</v>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>2306</v>
       </c>
     </row>
     <row r="62">
@@ -1592,11 +1668,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
-        </is>
-      </c>
-      <c r="D62">
-        <v>2149</v>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>2029</v>
       </c>
     </row>
     <row r="63">
@@ -1612,11 +1688,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
-        </is>
-      </c>
-      <c r="D63">
-        <v>2270</v>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>2034</v>
       </c>
     </row>
     <row r="64">
@@ -1632,14 +1708,194 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Massa de rendimento mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Massa de rendimento mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Massa de rendimento mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>01/04/2023</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Massa de rendimento mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Massa de rendimento mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Massa de rendimento mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Massa de rendimento mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Massa de rendimento mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
           <t>01/07/2024</t>
         </is>
       </c>
-      <c r="D64">
-        <v>2343</v>
+      <c r="D72" t="n">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Massa de rendimento mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>2482</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data/g14.2.xlsx
+++ b/Data/g14.2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>381916</v>
+        <v>400551</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>383145</v>
+        <v>401843</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>386294</v>
+        <v>405148</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>393108</v>
+        <v>412288</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>370940</v>
+        <v>389048</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>348900</v>
+        <v>365913</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>349283</v>
+        <v>366329</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>350780</v>
+        <v>367882</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>315381</v>
+        <v>330758</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>314643</v>
+        <v>329970</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>314120</v>
+        <v>329429</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>312457</v>
+        <v>327674</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>298226</v>
+        <v>312753</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>311256</v>
+        <v>326417</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>326266</v>
+        <v>342148</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>332776</v>
+        <v>348970</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>315309</v>
+        <v>330653</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>318491</v>
+        <v>333987</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>326933</v>
+        <v>342839</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>333655</v>
+        <v>349896</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>320515</v>
+        <v>336116</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>331500</v>
+        <v>347632</v>
       </c>
     </row>
     <row r="24">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>334104</v>
+        <v>350369</v>
       </c>
     </row>
     <row r="25">
@@ -932,13 +932,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>341484</v>
+        <v>358115</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -948,17 +948,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>59153</v>
+        <v>343280</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/04/2025</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>59432</v>
+        <v>353215</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -988,11 +988,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>59124</v>
+        <v>354564</v>
       </c>
     </row>
     <row r="29">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>60622</v>
+        <v>61993</v>
       </c>
     </row>
     <row r="30">
@@ -1028,11 +1028,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>56737</v>
+        <v>62286</v>
       </c>
     </row>
     <row r="31">
@@ -1048,11 +1048,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>51849</v>
+        <v>61963</v>
       </c>
     </row>
     <row r="32">
@@ -1068,11 +1068,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>50086</v>
+        <v>63533</v>
       </c>
     </row>
     <row r="33">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>52131</v>
+        <v>59460</v>
       </c>
     </row>
     <row r="34">
@@ -1108,11 +1108,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>45963</v>
+        <v>54337</v>
       </c>
     </row>
     <row r="35">
@@ -1128,11 +1128,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>46422</v>
+        <v>52489</v>
       </c>
     </row>
     <row r="36">
@@ -1148,11 +1148,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>47245</v>
+        <v>54633</v>
       </c>
     </row>
     <row r="37">
@@ -1168,11 +1168,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>47044</v>
+        <v>48171</v>
       </c>
     </row>
     <row r="38">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>43885</v>
+        <v>48650</v>
       </c>
     </row>
     <row r="39">
@@ -1208,11 +1208,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>46062</v>
+        <v>49511</v>
       </c>
     </row>
     <row r="40">
@@ -1228,11 +1228,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>48854</v>
+        <v>49301</v>
       </c>
     </row>
     <row r="41">
@@ -1248,11 +1248,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>49528</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="42">
@@ -1268,11 +1268,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>47264</v>
+        <v>48271</v>
       </c>
     </row>
     <row r="43">
@@ -1288,11 +1288,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>47474</v>
+        <v>51198</v>
       </c>
     </row>
     <row r="44">
@@ -1308,11 +1308,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>48667</v>
+        <v>51906</v>
       </c>
     </row>
     <row r="45">
@@ -1328,11 +1328,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>49541</v>
+        <v>49532</v>
       </c>
     </row>
     <row r="46">
@@ -1348,11 +1348,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>47430</v>
+        <v>49752</v>
       </c>
     </row>
     <row r="47">
@@ -1368,11 +1368,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>51061</v>
+        <v>51000</v>
       </c>
     </row>
     <row r="48">
@@ -1388,11 +1388,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>51518</v>
+        <v>51917</v>
       </c>
     </row>
     <row r="49">
@@ -1408,17 +1408,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>53039</v>
+        <v>49703</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1428,17 +1428,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2522</v>
+        <v>53508</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1448,17 +1448,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2545</v>
+        <v>53988</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2517</v>
+        <v>55584</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2562</v>
+        <v>53053</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1508,17 +1508,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2025</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2498</v>
+        <v>54826</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1528,11 +1528,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2347</v>
+        <v>55902</v>
       </c>
     </row>
     <row r="56">
@@ -1548,11 +1548,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2173</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="57">
@@ -1568,11 +1568,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2546</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="58">
@@ -1588,11 +1588,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2084</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="59">
@@ -1608,11 +1608,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2240</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="60">
@@ -1628,11 +1628,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2207</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="61">
@@ -1648,11 +1648,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2306</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="62">
@@ -1668,11 +1668,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2029</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="63">
@@ -1688,11 +1688,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2034</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="64">
@@ -1708,11 +1708,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2106</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="65">
@@ -1728,11 +1728,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2198</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="66">
@@ -1748,11 +1748,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2037</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="67">
@@ -1768,11 +1768,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2120</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="68">
@@ -1788,11 +1788,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2087</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="69">
@@ -1808,11 +1808,11 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2033</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="70">
@@ -1828,11 +1828,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2120</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="71">
@@ -1848,11 +1848,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2243</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="72">
@@ -1868,11 +1868,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2322</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="73">
@@ -1888,11 +1888,191 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>01/04/2023</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Massa de rendimento mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Massa de rendimento mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Massa de rendimento mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Massa de rendimento mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Massa de rendimento mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Massa de rendimento mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
           <t>01/10/2024</t>
         </is>
       </c>
-      <c r="D73" t="n">
-        <v>2482</v>
+      <c r="D79" t="n">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Massa de rendimento mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Massa de rendimento mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>01/04/2025</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Massa de rendimento mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>01/07/2025</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>2613</v>
       </c>
     </row>
   </sheetData>
